--- a/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164401</t>
+          <t>005094</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源中证健康产业指数</t>
+          <t>万家臻选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>55.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0617</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.61</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.12</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7271</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>82.36</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4471</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005161</t>
+          <t>164401</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商上游产业股票</t>
+          <t>前海开源中证健康产业指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.58</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005094</t>
+          <t>003751</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家臻选混合</t>
+          <t>万家瑞隆混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>64.83</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003751</t>
+          <t>005161</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家瑞隆混合</t>
+          <t>华商上游产业股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519195</t>
+          <t>005094</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家品质生活灵活配置混合</t>
+          <t>万家臻选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005094</t>
+          <t>009199</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家臻选混合</t>
+          <t>万家价值优势一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.41</t>
+          <t>43.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7655</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -772,15 +872,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.61</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.65</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2820</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003751</t>
+          <t>519195</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家瑞隆混合</t>
+          <t>万家品质生活灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3774</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009199</t>
+          <t>003751</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家价值优势一年持有期混合</t>
+          <t>万家瑞隆混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0805</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5846</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4948</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4464</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6517</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3090</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9893</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8736</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8509</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7193</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5564</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4125</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.55</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1204</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.62</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.58</v>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7739</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2125,13 +2212,1329 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4673</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3126</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1735</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1358</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9315</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8993</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8704</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7393</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5365</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5139</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4803</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3615</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2497</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3433,7 +3434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3444,17 +3445,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3464,14 +3485,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.13</v>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3330</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3480,14 +3523,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.55</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1783</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3496,14 +3561,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.62</v>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0069</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3512,14 +3599,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.58</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7657</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3528,13 +3637,1497 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6795</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3056</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2977</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1657</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0854</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8315</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5596</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>59.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4415</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4293</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2651</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>72.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>64.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5010,7 +5011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5021,17 +5022,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5041,14 +5062,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.4</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8991</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5057,14 +5100,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.13</v>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8158</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5073,14 +5138,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.55</v>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7769</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5089,14 +5176,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.62</v>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5105,14 +5214,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.58</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5604</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -5121,13 +5252,829 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1973</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1526</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9813</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9240</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8522</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7705</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6124</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>16.54</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>20.4</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>20.13</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>12.55</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>5.62</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>5.58</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.33</v>
       </c>
     </row>
@@ -600,6 +617,1728 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5914</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4129</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3580</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3385</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2797</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0841</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0435</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9114</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7560</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6730</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008317</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信睿盈混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6353</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016954</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6346</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3697</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2781</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013326</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银景福回报混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>45.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013327</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>016600</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>35.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014049</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014050</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>35.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015089</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银景福回报混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>016520</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1529,7 +3268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3105,7 +4844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4491,7 +6230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5231,7 +6970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5553,7 +7292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5799,7 +7538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002041-登海种业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>14.87</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>16.54</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>20.4</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>20.13</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>12.55</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>5.62</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>5.58</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.33</v>
       </c>
     </row>
@@ -616,7 +633,1601 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0617</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7271</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4471</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3762</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6692</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4664</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2855</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1718</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9458</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8221</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6988</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008317</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信睿盈混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6602</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6585</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰大农业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4337</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银农业产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013326</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>016600</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013262</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>673090</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013327</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>016954</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2338,7 +3949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3268,7 +4879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4844,7 +6455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6230,7 +7841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6970,7 +8581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7292,7 +8903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7536,288 +9147,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005094</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家臻选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>55.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>64.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.0617</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003634</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实农业产业股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>28.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7271</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005106</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华农业产业股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4471</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>164401</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源中证健康产业指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0596</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003751</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家瑞隆混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0260</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005161</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>